--- a/R/analysis/data/Pt_23_Control.xlsx
+++ b/R/analysis/data/Pt_23_Control.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="M2"/>
       <c r="N2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>2.07</v>
       </c>
       <c r="L3" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="e">
@@ -625,14 +625,14 @@
         <v>2.03</v>
       </c>
       <c r="K4" t="n">
-        <v>4.74</v>
+        <v>0.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0.36</v>
+        <v>3.36</v>
       </c>
       <c r="M4"/>
       <c r="N4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
         <v>0.35</v>
@@ -746,7 +746,7 @@
         <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.83</v>
+        <v>3.83</v>
       </c>
       <c r="M6" t="n">
         <v>0.71</v>
@@ -803,16 +803,16 @@
         <v>0.95</v>
       </c>
       <c r="K7" t="n">
-        <v>4.26</v>
+        <v>1.15</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.81</v>
+        <v>3.02</v>
       </c>
       <c r="M7" t="n">
-        <v>3.18</v>
+        <v>0.35</v>
       </c>
       <c r="N7" t="n">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>2.08</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.67</v>
+        <v>4.67</v>
       </c>
       <c r="O8" t="n">
         <v>0.35</v>
@@ -926,7 +926,7 @@
         <v>2.5</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.71</v>
+        <v>4.71</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="n">
@@ -981,16 +981,16 @@
         <v>0.96</v>
       </c>
       <c r="K10" t="n">
-        <v>5.59</v>
+        <v>1.07</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.75</v>
+        <v>3.96</v>
       </c>
       <c r="M10" t="n">
-        <v>4.01</v>
+        <v>2.6</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.83</v>
+        <v>2.84</v>
       </c>
       <c r="O10" t="n">
         <v>0.08</v>
@@ -1050,7 +1050,7 @@
         <v>2.12</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O11" t="n">
         <v>0.46</v>
@@ -1104,7 +1104,7 @@
         <v>2.08</v>
       </c>
       <c r="L12" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="n">
@@ -1159,16 +1159,16 @@
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.24</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>2.47</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="O13" t="n">
         <v>0.18</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0.46</v>
@@ -1284,7 +1284,7 @@
         <v>1.51</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.67</v>
+        <v>3.67</v>
       </c>
       <c r="M15" t="n">
         <v>1.41</v>
@@ -1341,16 +1341,16 @@
         <v>1.46</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>0.59</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.42</v>
+        <v>3.25</v>
       </c>
       <c r="M16" t="n">
-        <v>2.12</v>
+        <v>0.71</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O16" t="n">
         <v>0.09</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>2.75</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.75</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
         <v>0.58</v>
@@ -1523,16 +1523,16 @@
         <v>1.73</v>
       </c>
       <c r="K19" t="n">
-        <v>4.07</v>
+        <v>1.24</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.88</v>
+        <v>2.88</v>
       </c>
       <c r="M19" t="n">
-        <v>2.47</v>
+        <v>0.35</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="O19" t="n">
         <v>0.08</v>
@@ -1642,7 +1642,7 @@
         <v>1.14</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.4</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
         <v>1.53</v>
@@ -1697,10 +1697,10 @@
         <v>1.09</v>
       </c>
       <c r="K22" t="n">
-        <v>4.09</v>
+        <v>2.11</v>
       </c>
       <c r="L22" t="n">
-        <v>1.49</v>
+        <v>2.89</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
@@ -1814,7 +1814,7 @@
         <v>1.97</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.33</v>
+        <v>2.33</v>
       </c>
       <c r="M24" t="n">
         <v>1.41</v>
@@ -1869,10 +1869,10 @@
         <v>0.78</v>
       </c>
       <c r="K25" t="n">
-        <v>4.65</v>
+        <v>1.36</v>
       </c>
       <c r="L25" t="n">
-        <v>0.96</v>
+        <v>3.29</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
@@ -1986,7 +1986,7 @@
         <v>1.5</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="M27" t="n">
         <v>2.22</v>
@@ -2041,10 +2041,10 @@
         <v>1.03</v>
       </c>
       <c r="K28" t="n">
-        <v>4.07</v>
+        <v>1.59</v>
       </c>
       <c r="L28" t="n">
-        <v>1.12</v>
+        <v>2.88</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
